--- a/data/financial_statements/sofp/MHK.xlsx
+++ b/data/financial_statements/sofp/MHK.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -119,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -484,144 +595,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>437000000</v>
+        <v>436971000</v>
       </c>
       <c r="C2">
-        <v>489000000</v>
+        <v>488986000</v>
       </c>
       <c r="D2">
-        <v>541000000</v>
+        <v>540559000</v>
       </c>
       <c r="E2">
-        <v>592000000</v>
+        <v>591895000</v>
       </c>
       <c r="F2">
-        <v>1128000000</v>
+        <v>1128027000</v>
       </c>
       <c r="G2">
         <v>1416035000</v>
@@ -727,23 +838,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>2003000000</v>
+        <v>2003261000</v>
       </c>
       <c r="C3">
-        <v>2106000000</v>
+        <v>2105809000</v>
       </c>
       <c r="D3">
-        <v>2045000000</v>
+        <v>2044698000</v>
       </c>
       <c r="E3">
-        <v>1840000000</v>
+        <v>1839985000</v>
       </c>
       <c r="F3">
-        <v>1880000000</v>
+        <v>1880476000</v>
       </c>
       <c r="G3">
         <v>2017622000</v>
@@ -849,23 +960,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2900000000</v>
+        <v>2900116000</v>
       </c>
       <c r="C4">
-        <v>2826000000</v>
+        <v>2826044000</v>
       </c>
       <c r="D4">
-        <v>2513000000</v>
+        <v>2513244000</v>
       </c>
       <c r="E4">
-        <v>2392000000</v>
+        <v>2391672000</v>
       </c>
       <c r="F4">
-        <v>2216000000</v>
+        <v>2215630000</v>
       </c>
       <c r="G4">
         <v>2081967000</v>
@@ -971,23 +1082,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>514000000</v>
+        <v>18755000</v>
       </c>
       <c r="C5">
-        <v>520000000</v>
+        <v>19037000</v>
       </c>
       <c r="D5">
-        <v>466000000</v>
+        <v>18880000</v>
       </c>
       <c r="E5">
-        <v>415000000</v>
+        <v>20156000</v>
       </c>
       <c r="F5">
-        <v>422000000</v>
+        <v>19174000</v>
       </c>
       <c r="G5">
         <v>25263000</v>
@@ -1093,23 +1204,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>5854000000</v>
+        <v>5854329000</v>
       </c>
       <c r="C6">
-        <v>5941000000</v>
+        <v>5940734000</v>
       </c>
       <c r="D6">
-        <v>5565000000</v>
+        <v>5564739000</v>
       </c>
       <c r="E6">
-        <v>5238000000</v>
+        <v>5238357000</v>
       </c>
       <c r="F6">
-        <v>5646000000</v>
+        <v>5646077000</v>
       </c>
       <c r="G6">
         <v>5950556000</v>
@@ -1215,23 +1326,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>4925000000</v>
+        <v>4524536000</v>
       </c>
       <c r="C7">
-        <v>4987000000</v>
+        <v>4582075000</v>
       </c>
       <c r="D7">
-        <v>4937000000</v>
+        <v>4552612000</v>
       </c>
       <c r="E7">
-        <v>5027000000</v>
+        <v>4636865000</v>
       </c>
       <c r="F7">
-        <v>4828000000</v>
+        <v>4442339000</v>
       </c>
       <c r="G7">
         <v>4459380000</v>
@@ -1337,23 +1448,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>2651000000</v>
+        <v>2651068000</v>
       </c>
       <c r="C8">
-        <v>3393000000</v>
+        <v>3392715000</v>
       </c>
       <c r="D8">
-        <v>3463000000</v>
+        <v>3462912000</v>
       </c>
       <c r="E8">
-        <v>3508000000</v>
+        <v>3507889000</v>
       </c>
       <c r="F8">
-        <v>3523000000</v>
+        <v>3523472000</v>
       </c>
       <c r="G8">
         <v>3531873000</v>
@@ -1459,8 +1570,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>370689000</v>
@@ -1581,8 +1692,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>371000000</v>
@@ -1631,8 +1742,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>7946705000</v>
@@ -1753,23 +1864,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>13801000000</v>
+        <v>13801030000</v>
       </c>
       <c r="C12">
-        <v>14689000000</v>
+        <v>14689490000</v>
       </c>
       <c r="D12">
-        <v>14387000000</v>
+        <v>14386720000</v>
       </c>
       <c r="E12">
-        <v>14225000000</v>
+        <v>14224520000</v>
       </c>
       <c r="F12">
-        <v>14450000000</v>
+        <v>14450300000</v>
       </c>
       <c r="G12">
         <v>14792790000</v>
@@ -1875,23 +1986,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>1218000000</v>
+        <v>2256097000</v>
       </c>
       <c r="C13">
-        <v>1359000000</v>
+        <v>2316980000</v>
       </c>
       <c r="D13">
-        <v>1296000000</v>
+        <v>2220347000</v>
       </c>
       <c r="E13">
-        <v>1229000000</v>
+        <v>2217418000</v>
       </c>
       <c r="F13">
-        <v>1147000000</v>
+        <v>2209942000</v>
       </c>
       <c r="G13">
         <v>2119154000</v>
@@ -1997,23 +2108,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>1650000000</v>
+        <v>1542139000</v>
       </c>
       <c r="C14">
-        <v>1611000000</v>
+        <v>1498900000</v>
       </c>
       <c r="D14">
-        <v>1654000000</v>
+        <v>1546463000</v>
       </c>
       <c r="E14">
-        <v>732000000</v>
+        <v>624503000</v>
       </c>
       <c r="F14">
-        <v>697000000</v>
+        <v>588669000</v>
       </c>
       <c r="G14">
         <v>958781000</v>
@@ -2119,8 +2230,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1037000000</v>
@@ -2169,23 +2280,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>3905000000</v>
+        <v>3904747000</v>
       </c>
       <c r="C16">
-        <v>3924000000</v>
+        <v>3924377000</v>
       </c>
       <c r="D16">
-        <v>3872000000</v>
+        <v>3871633000</v>
       </c>
       <c r="E16">
-        <v>2946000000</v>
+        <v>2946355000</v>
       </c>
       <c r="F16">
-        <v>2902000000</v>
+        <v>2901743000</v>
       </c>
       <c r="G16">
         <v>3178886000</v>
@@ -2291,23 +2402,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>1327000000</v>
+        <v>1019984000</v>
       </c>
       <c r="C17">
-        <v>1361000000</v>
+        <v>1052064000</v>
       </c>
       <c r="D17">
-        <v>1382000000</v>
+        <v>1088401000</v>
       </c>
       <c r="E17">
-        <v>1998000000</v>
+        <v>1700282000</v>
       </c>
       <c r="F17">
-        <v>2003000000</v>
+        <v>1710207000</v>
       </c>
       <c r="G17">
         <v>1723294000</v>
@@ -2413,23 +2524,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>431000000</v>
+        <v>430888000</v>
       </c>
       <c r="C18">
-        <v>471000000</v>
+        <v>471044000</v>
       </c>
       <c r="D18">
-        <v>498000000</v>
+        <v>498273000</v>
       </c>
       <c r="E18">
-        <v>496000000</v>
+        <v>495521000</v>
       </c>
       <c r="F18">
-        <v>442000000</v>
+        <v>441871000</v>
       </c>
       <c r="G18">
         <v>454671000</v>
@@ -2535,8 +2646,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="R19">
         <v>31227000</v>
@@ -2582,23 +2693,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>314000000</v>
+        <v>313741000</v>
       </c>
       <c r="C20">
-        <v>326000000</v>
+        <v>325803000</v>
       </c>
       <c r="D20">
-        <v>348000000</v>
+        <v>347570000</v>
       </c>
       <c r="E20">
-        <v>357000000</v>
+        <v>356753000</v>
       </c>
       <c r="F20">
-        <v>351000000</v>
+        <v>351224000</v>
       </c>
       <c r="G20">
         <v>369899000</v>
@@ -2704,8 +2815,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>2071230000</v>
@@ -2826,23 +2937,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>5976000000</v>
+        <v>5975977000</v>
       </c>
       <c r="C22">
-        <v>6083000000</v>
+        <v>6082549000</v>
       </c>
       <c r="D22">
-        <v>6099000000</v>
+        <v>6099116000</v>
       </c>
       <c r="E22">
-        <v>5796000000</v>
+        <v>5796301000</v>
       </c>
       <c r="F22">
-        <v>5698000000</v>
+        <v>5697851000</v>
       </c>
       <c r="G22">
         <v>6018851000</v>
@@ -2948,8 +3059,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>1925894000</v>
@@ -3070,23 +3181,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>1000000</v>
+        <v>709000</v>
       </c>
       <c r="C24">
-        <v>1000000</v>
+        <v>709000</v>
       </c>
       <c r="D24">
-        <v>1000000</v>
+        <v>709000</v>
       </c>
       <c r="E24">
-        <v>1000000</v>
+        <v>729000</v>
       </c>
       <c r="F24">
-        <v>1000000</v>
+        <v>754000</v>
       </c>
       <c r="G24">
         <v>764000</v>
@@ -3192,23 +3303,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>7376000000</v>
+        <v>7376304000</v>
       </c>
       <c r="C25">
-        <v>7911000000</v>
+        <v>7910657000</v>
       </c>
       <c r="D25">
-        <v>7631000000</v>
+        <v>7630837000</v>
       </c>
       <c r="E25">
-        <v>7692000000</v>
+        <v>7692064000</v>
       </c>
       <c r="F25">
-        <v>7930000000</v>
+        <v>7929950000</v>
       </c>
       <c r="G25">
         <v>7867795000</v>
@@ -3314,8 +3425,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>215491000</v>
@@ -3436,23 +3547,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>7819000000</v>
+        <v>7825057000</v>
       </c>
       <c r="C27">
-        <v>8601000000</v>
+        <v>8606938000</v>
       </c>
       <c r="D27">
-        <v>8281000000</v>
+        <v>8287603000</v>
       </c>
       <c r="E27">
-        <v>8421000000</v>
+        <v>8428216000</v>
       </c>
       <c r="F27">
-        <v>8746000000</v>
+        <v>8752449000</v>
       </c>
       <c r="G27">
         <v>8773942000</v>
@@ -3558,23 +3669,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>7819000000</v>
+        <v>7825057000</v>
       </c>
       <c r="C28">
-        <v>8601000000</v>
+        <v>8606938000</v>
       </c>
       <c r="D28">
-        <v>8281000000</v>
+        <v>8287603000</v>
       </c>
       <c r="E28">
-        <v>8421000000</v>
+        <v>8428216000</v>
       </c>
       <c r="F28">
-        <v>8746000000</v>
+        <v>8752449000</v>
       </c>
       <c r="G28">
         <v>8773942000</v>
@@ -3680,8 +3791,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>13801030000</v>
@@ -3802,8 +3913,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>70875000</v>
@@ -3924,8 +4035,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>5173989000</v>
@@ -4046,23 +4157,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>2540000000</v>
+        <v>2125152000</v>
       </c>
       <c r="C32">
-        <v>2483000000</v>
+        <v>2061978000</v>
       </c>
       <c r="D32">
-        <v>2495000000</v>
+        <v>2094305000</v>
       </c>
       <c r="E32">
-        <v>2138000000</v>
+        <v>1732890000</v>
       </c>
       <c r="F32">
-        <v>1572000000</v>
+        <v>1170849000</v>
       </c>
       <c r="G32">
         <v>1266040000</v>
@@ -4168,23 +4279,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>2977000000</v>
+        <v>2562123000</v>
       </c>
       <c r="C33">
-        <v>2972000000</v>
+        <v>2550964000</v>
       </c>
       <c r="D33">
-        <v>3036000000</v>
+        <v>2634864000</v>
       </c>
       <c r="E33">
-        <v>2730000000</v>
+        <v>2324785000</v>
       </c>
       <c r="F33">
-        <v>2700000000</v>
+        <v>2298876000</v>
       </c>
       <c r="G33">
         <v>2682075000</v>
